--- a/assets/1451BagleyModel.xlsx
+++ b/assets/1451BagleyModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rzampardo/Documents/Real Estate/1) Inkwell Partners/2) Projects/PIPELINE/1451 Bagley (Hello Records)/8) Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8185D76-E8EA-6345-9A78-FAEA235A81E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD53661-ACD9-BF49-86CE-B110918EBC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36740" yWindow="1040" windowWidth="28800" windowHeight="16020" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37100" yWindow="1940" windowWidth="28800" windowHeight="16020" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cash Flow" sheetId="4" r:id="rId1"/>
@@ -5121,8 +5121,8 @@
   </sheetPr>
   <dimension ref="B1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C18:C51"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5324,15 +5324,15 @@
       </c>
       <c r="S8" s="18">
         <f>(O8/$O$12)*$O$46</f>
-        <v>6970.3619426751584</v>
+        <v>7110.3455847607784</v>
       </c>
       <c r="T8" s="18">
         <f>S8/12</f>
-        <v>580.86349522292983</v>
+        <v>592.52879873006486</v>
       </c>
       <c r="U8" s="18">
         <f>R8+T8</f>
-        <v>2080.8634952229299</v>
+        <v>2092.5287987300649</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.15">
@@ -5361,15 +5361,15 @@
       </c>
       <c r="S9" s="18">
         <f>(O9/$O$12)*$O$46</f>
-        <v>4044.697452229299</v>
+        <v>4125.9258712344945</v>
       </c>
       <c r="T9" s="18">
         <f>S9/12</f>
-        <v>337.05812101910823</v>
+        <v>343.82715593620787</v>
       </c>
       <c r="U9" s="18">
         <f>R9+T9</f>
-        <v>1037.0581210191083</v>
+        <v>1043.8271559362079</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.15">
@@ -5399,15 +5399,15 @@
       </c>
       <c r="S10" s="18">
         <f>(O10/$O$12)*$O$46</f>
-        <v>4813.1899681528657</v>
+        <v>4909.851786769048</v>
       </c>
       <c r="T10" s="18">
         <f>S10/12</f>
-        <v>401.09916401273881</v>
+        <v>409.15431556408731</v>
       </c>
       <c r="U10" s="18">
         <f>R10+T10</f>
-        <v>1201.0991640127388</v>
+        <v>1209.1543155640873</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.15">
@@ -5437,15 +5437,15 @@
       </c>
       <c r="S11" s="18">
         <f>(O11/$O$12)*$O$46</f>
-        <v>9653.3445859872609</v>
+        <v>9847.2097460129935</v>
       </c>
       <c r="T11" s="18">
         <f>S11/12</f>
-        <v>804.44538216560511</v>
+        <v>820.6008121677495</v>
       </c>
       <c r="U11" s="18">
         <f>R11+T11</f>
-        <v>2504.4453821656052</v>
+        <v>2520.6008121677496</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.15">
@@ -5474,15 +5474,15 @@
       </c>
       <c r="S12" s="39">
         <f>SUM(S8:S11)</f>
-        <v>25481.593949044582</v>
+        <v>25993.332988777314</v>
       </c>
       <c r="T12" s="39">
         <f>SUM(T8:T11)</f>
-        <v>2123.4661624203818</v>
+        <v>2166.1110823981094</v>
       </c>
       <c r="U12" s="39">
         <f>SUM(U8:U11)</f>
-        <v>6823.4661624203818</v>
+        <v>6866.1110823981098</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.15">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="T14" s="50">
         <f>T12/R12</f>
-        <v>0.45180131115327271</v>
+        <v>0.46087469838257644</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>101</v>
@@ -5541,10 +5541,7 @@
       <c r="P15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S15" s="12">
-        <f>S12*1.02</f>
-        <v>25991.225828025475</v>
-      </c>
+      <c r="S15" s="12"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
@@ -5753,15 +5750,15 @@
       <c r="O20" s="7">
         <v>340</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="49">
+        <f>R20*12/O20</f>
         <v>75</v>
       </c>
       <c r="Q20" s="40">
         <f>O20*P20</f>
         <v>25500</v>
       </c>
-      <c r="R20" s="49">
-        <f>Q20/12</f>
+      <c r="R20" s="7">
         <v>2125</v>
       </c>
       <c r="S20" s="7">
@@ -5780,24 +5777,24 @@
         <v>52</v>
       </c>
       <c r="O21" s="7">
-        <v>240</v>
-      </c>
-      <c r="P21" s="7">
-        <v>75</v>
+        <v>220</v>
+      </c>
+      <c r="P21" s="49">
+        <f>R21*12/O21</f>
+        <v>81.818181818181813</v>
       </c>
       <c r="Q21" s="40">
         <f t="shared" ref="Q21:Q25" si="5">O21*P21</f>
         <v>18000</v>
       </c>
-      <c r="R21" s="49">
-        <f t="shared" ref="R21:R25" si="6">Q21/12</f>
+      <c r="R21" s="7">
         <v>1500</v>
       </c>
       <c r="S21" s="7">
         <v>4</v>
       </c>
       <c r="T21" s="40">
-        <f t="shared" ref="T21:T25" si="7">R21/S21</f>
+        <f t="shared" ref="T21:T25" si="6">R21/S21</f>
         <v>375</v>
       </c>
       <c r="U21" s="7">
@@ -5813,35 +5810,35 @@
         <v>117300</v>
       </c>
       <c r="E22" s="10">
-        <f t="shared" ref="E22:L22" si="8">D22*(1+$O$29)</f>
+        <f t="shared" ref="E22:L22" si="7">D22*(1+$O$29)</f>
         <v>120819</v>
       </c>
       <c r="F22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>124443.57</v>
       </c>
       <c r="G22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>128176.87710000001</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>132022.18341300002</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>135982.84891539003</v>
       </c>
       <c r="J22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>140062.33438285172</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>144264.20441433729</v>
       </c>
       <c r="L22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>148592.13054676741</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -5850,22 +5847,22 @@
       <c r="O22" s="7">
         <v>160</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="49">
+        <f>R22*12/O22</f>
         <v>75</v>
       </c>
       <c r="Q22" s="40">
         <f t="shared" si="5"/>
         <v>12000</v>
       </c>
-      <c r="R22" s="49">
-        <f t="shared" si="6"/>
+      <c r="R22" s="7">
         <v>1000</v>
       </c>
       <c r="S22" s="7">
         <v>3</v>
       </c>
       <c r="T22" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>333.33333333333331</v>
       </c>
       <c r="U22" s="7">
@@ -5879,22 +5876,22 @@
       <c r="O23" s="7">
         <v>136</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="49">
+        <f>R23*12/O23</f>
         <v>75</v>
       </c>
       <c r="Q23" s="40">
         <f t="shared" si="5"/>
         <v>10200</v>
       </c>
-      <c r="R23" s="49">
-        <f t="shared" si="6"/>
+      <c r="R23" s="7">
         <v>850</v>
       </c>
       <c r="S23" s="7">
         <v>2</v>
       </c>
       <c r="T23" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>425</v>
       </c>
       <c r="U23" s="7">
@@ -5910,35 +5907,35 @@
         <v>-86850</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" ref="E24:L24" si="9">-(SUM(E17:E20)*$O$14)-(E22*$O$28)</f>
+        <f t="shared" ref="E24:L24" si="8">-(SUM(E17:E20)*$O$14)-(E22*$O$28)</f>
         <v>-17721.900000000001</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-18084.357000000004</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-18980.667990000002</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-19365.198621300002</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-19761.265171539002</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-20740.688390708732</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-21160.875393857288</v>
       </c>
       <c r="L24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-21593.668007100303</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -5947,22 +5944,22 @@
       <c r="O24" s="7">
         <v>104</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="49">
+        <f>R24*12/O24</f>
         <v>75</v>
       </c>
       <c r="Q24" s="40">
         <f t="shared" si="5"/>
         <v>7800</v>
       </c>
-      <c r="R24" s="49">
-        <f t="shared" si="6"/>
+      <c r="R24" s="7">
         <v>650</v>
       </c>
       <c r="S24" s="7">
         <v>2</v>
       </c>
       <c r="T24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>325</v>
       </c>
       <c r="U24" s="7">
@@ -5974,24 +5971,24 @@
         <v>55</v>
       </c>
       <c r="O25" s="7">
-        <v>80</v>
-      </c>
-      <c r="P25" s="7">
-        <v>75</v>
+        <v>64</v>
+      </c>
+      <c r="P25" s="49">
+        <f>R25*12/O25</f>
+        <v>93.75</v>
       </c>
       <c r="Q25" s="40">
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
-      <c r="R25" s="49">
-        <f t="shared" si="6"/>
+      <c r="R25" s="7">
         <v>500</v>
       </c>
       <c r="S25" s="7">
         <v>1</v>
       </c>
       <c r="T25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="U25" s="7">
@@ -6004,52 +6001,52 @@
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="30">
-        <f t="shared" ref="D26:L26" si="10">SUM(D16:D25)</f>
+        <f t="shared" ref="D26:L26" si="9">SUM(D16:D25)</f>
         <v>86850</v>
       </c>
       <c r="E26" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>159497.1</v>
       </c>
       <c r="F26" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>162759.21299999999</v>
       </c>
       <c r="G26" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>170826.01191</v>
       </c>
       <c r="H26" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>174286.78759170003</v>
       </c>
       <c r="I26" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>177851.38654385103</v>
       </c>
       <c r="J26" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>186666.19551637859</v>
       </c>
       <c r="K26" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>190447.87854471561</v>
       </c>
       <c r="L26" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>194343.01206390272</v>
       </c>
       <c r="N26" s="27"/>
       <c r="O26" s="28">
         <f>SUMPRODUCT(O20:O25,U20:U25)</f>
-        <v>1564</v>
+        <v>1496</v>
       </c>
       <c r="P26" s="41">
-        <f t="shared" ref="P26" si="11">Q26/O26</f>
-        <v>75</v>
+        <f t="shared" ref="P26" si="10">Q26/O26</f>
+        <v>78.409090909090907</v>
       </c>
       <c r="Q26" s="28">
-        <f t="shared" ref="Q26" si="12">R26*12</f>
+        <f t="shared" ref="Q26" si="11">R26*12</f>
         <v>117300</v>
       </c>
       <c r="R26" s="28">
@@ -6076,39 +6073,39 @@
       <c r="C28" s="19"/>
       <c r="D28" s="10">
         <f>-(O44-O46)</f>
-        <v>-37928.856050955408</v>
+        <v>-37417.117011222683</v>
       </c>
       <c r="E28" s="13">
-        <f t="shared" ref="E28:L28" si="13">D28*(1+$O$47)</f>
-        <v>-38687.433171974517</v>
+        <f t="shared" ref="E28:L28" si="12">D28*(1+$O$47)</f>
+        <v>-38165.459351447134</v>
       </c>
       <c r="F28" s="13">
-        <f t="shared" si="13"/>
-        <v>-39461.181835414005</v>
+        <f t="shared" si="12"/>
+        <v>-38928.768538476077</v>
       </c>
       <c r="G28" s="13">
-        <f t="shared" si="13"/>
-        <v>-40250.405472122286</v>
+        <f t="shared" si="12"/>
+        <v>-39707.343909245603</v>
       </c>
       <c r="H28" s="13">
-        <f t="shared" si="13"/>
-        <v>-41055.413581564731</v>
+        <f t="shared" si="12"/>
+        <v>-40501.490787430514</v>
       </c>
       <c r="I28" s="13">
-        <f t="shared" si="13"/>
-        <v>-41876.521853196027</v>
+        <f t="shared" si="12"/>
+        <v>-41311.520603179124</v>
       </c>
       <c r="J28" s="13">
-        <f t="shared" si="13"/>
-        <v>-42714.052290259948</v>
+        <f t="shared" si="12"/>
+        <v>-42137.751015242706</v>
       </c>
       <c r="K28" s="13">
-        <f t="shared" si="13"/>
-        <v>-43568.333336065145</v>
+        <f t="shared" si="12"/>
+        <v>-42980.506035547558</v>
       </c>
       <c r="L28" s="13">
-        <f t="shared" si="13"/>
-        <v>-44439.700002786449</v>
+        <f t="shared" si="12"/>
+        <v>-43840.116156258511</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>61</v>
@@ -6145,40 +6142,40 @@
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="24">
-        <f t="shared" ref="D30:L30" si="14">SUM(D26:D29)</f>
-        <v>48921.143949044592</v>
+        <f t="shared" ref="D30:L30" si="13">SUM(D26:D29)</f>
+        <v>49432.882988777317</v>
       </c>
       <c r="E30" s="24">
-        <f t="shared" si="14"/>
-        <v>120809.66682802548</v>
+        <f t="shared" si="13"/>
+        <v>121331.64064855287</v>
       </c>
       <c r="F30" s="24">
-        <f t="shared" si="14"/>
-        <v>123298.03116458599</v>
+        <f t="shared" si="13"/>
+        <v>123830.4444615239</v>
       </c>
       <c r="G30" s="24">
-        <f t="shared" si="14"/>
-        <v>130575.60643787772</v>
+        <f t="shared" si="13"/>
+        <v>131118.66800075441</v>
       </c>
       <c r="H30" s="24">
-        <f t="shared" si="14"/>
-        <v>133231.3740101353</v>
+        <f t="shared" si="13"/>
+        <v>133785.29680426951</v>
       </c>
       <c r="I30" s="24">
-        <f t="shared" si="14"/>
-        <v>135974.864690655</v>
+        <f t="shared" si="13"/>
+        <v>136539.86594067191</v>
       </c>
       <c r="J30" s="24">
-        <f t="shared" si="14"/>
-        <v>143952.14322611864</v>
+        <f t="shared" si="13"/>
+        <v>144528.44450113588</v>
       </c>
       <c r="K30" s="24">
-        <f t="shared" si="14"/>
-        <v>146879.54520865047</v>
+        <f t="shared" si="13"/>
+        <v>147467.37250916805</v>
       </c>
       <c r="L30" s="24">
-        <f t="shared" si="14"/>
-        <v>149903.31206111627</v>
+        <f t="shared" si="13"/>
+        <v>150502.89590764421</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.15">
@@ -6192,35 +6189,35 @@
         <v>-5000</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" ref="E32:L33" si="15">D32</f>
+        <f t="shared" ref="E32:L33" si="14">D32</f>
         <v>-5000</v>
       </c>
       <c r="F32" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-5000</v>
       </c>
       <c r="G32" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-5000</v>
       </c>
       <c r="H32" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-5000</v>
       </c>
       <c r="I32" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-5000</v>
       </c>
       <c r="J32" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-5000</v>
       </c>
       <c r="K32" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-5000</v>
       </c>
       <c r="L32" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-5000</v>
       </c>
       <c r="N32" s="26" t="s">
@@ -6242,35 +6239,35 @@
         <v>-2500</v>
       </c>
       <c r="E33" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-2500</v>
       </c>
       <c r="F33" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-2500</v>
       </c>
       <c r="G33" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-2500</v>
       </c>
       <c r="H33" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-2500</v>
       </c>
       <c r="I33" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-2500</v>
       </c>
       <c r="J33" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-2500</v>
       </c>
       <c r="K33" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-2500</v>
       </c>
       <c r="L33" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-2500</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -6286,15 +6283,15 @@
         <v>98</v>
       </c>
       <c r="D34" s="18">
-        <f t="shared" ref="D34:F34" si="16">-D26*2%</f>
+        <f t="shared" ref="D34:F34" si="15">-D26*2%</f>
         <v>-1737</v>
       </c>
       <c r="E34" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-3189.942</v>
       </c>
       <c r="F34" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-3255.18426</v>
       </c>
       <c r="G34" s="18">
@@ -6302,23 +6299,23 @@
         <v>-3416.5202382000002</v>
       </c>
       <c r="H34" s="18">
-        <f t="shared" ref="H34:L34" si="17">-H26*2%</f>
+        <f t="shared" ref="H34:L34" si="16">-H26*2%</f>
         <v>-3485.7357518340009</v>
       </c>
       <c r="I34" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-3557.0277308770205</v>
       </c>
       <c r="J34" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-3733.3239103275719</v>
       </c>
       <c r="K34" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-3808.9575708943121</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>-3886.8602412780542</v>
       </c>
       <c r="N34" s="1" t="s">
@@ -6353,7 +6350,7 @@
       </c>
       <c r="L36" s="10">
         <f>O65</f>
-        <v>2498388.5343519379</v>
+        <v>2508381.5984607372</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>64</v>
@@ -6374,7 +6371,7 @@
       </c>
       <c r="L37" s="13">
         <f>-L36*O68</f>
-        <v>-124919.4267175969</v>
+        <v>-125419.07992303686</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>65</v>
@@ -6408,44 +6405,44 @@
         <v>17</v>
       </c>
       <c r="C39" s="24">
-        <f t="shared" ref="C39:L39" si="18">-C14+SUM(C30:C38)</f>
+        <f t="shared" ref="C39:L39" si="17">-C14+SUM(C30:C38)</f>
         <v>-1450000</v>
       </c>
       <c r="D39" s="24">
-        <f t="shared" si="18"/>
-        <v>39684.143949044592</v>
+        <f t="shared" si="17"/>
+        <v>40195.882988777317</v>
       </c>
       <c r="E39" s="24">
-        <f t="shared" si="18"/>
-        <v>110119.72482802549</v>
+        <f t="shared" si="17"/>
+        <v>110641.69864855288</v>
       </c>
       <c r="F39" s="24">
-        <f t="shared" si="18"/>
-        <v>112542.846904586</v>
+        <f t="shared" si="17"/>
+        <v>113075.26020152391</v>
       </c>
       <c r="G39" s="24">
-        <f t="shared" si="18"/>
-        <v>119659.08619967772</v>
+        <f t="shared" si="17"/>
+        <v>120202.14776255441</v>
       </c>
       <c r="H39" s="24">
-        <f t="shared" si="18"/>
-        <v>122245.6382583013</v>
+        <f t="shared" si="17"/>
+        <v>122799.56105243551</v>
       </c>
       <c r="I39" s="24">
-        <f t="shared" si="18"/>
-        <v>124917.83695977798</v>
+        <f t="shared" si="17"/>
+        <v>125482.83820979489</v>
       </c>
       <c r="J39" s="24">
-        <f t="shared" si="18"/>
-        <v>132718.81931579107</v>
+        <f t="shared" si="17"/>
+        <v>133295.12059080831</v>
       </c>
       <c r="K39" s="24">
-        <f t="shared" si="18"/>
-        <v>135570.58763775617</v>
+        <f t="shared" si="17"/>
+        <v>136158.41493827375</v>
       </c>
       <c r="L39" s="24">
-        <f t="shared" si="18"/>
-        <v>2511985.5594541789</v>
+        <f t="shared" si="17"/>
+        <v>2522078.5542040663</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>68</v>
@@ -6627,11 +6624,11 @@
       </c>
       <c r="O46" s="44">
         <f>(O34+O35+O37+O38+O41+O42+O43)*P46</f>
-        <v>25481.593949044585</v>
+        <v>25993.332988777314</v>
       </c>
       <c r="P46" s="46">
         <f>O12/(O12+O26)</f>
-        <v>0.54719166184134338</v>
+        <v>0.55818074424099229</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>85</v>
@@ -6661,44 +6658,44 @@
         <v>1</v>
       </c>
       <c r="C49" s="14">
-        <f t="shared" ref="C49:L49" si="19">SUM(C39:C47)</f>
+        <f t="shared" ref="C49:L49" si="18">SUM(C39:C47)</f>
         <v>-1450000</v>
       </c>
       <c r="D49" s="14">
-        <f t="shared" si="19"/>
-        <v>39684.143949044592</v>
+        <f t="shared" si="18"/>
+        <v>40195.882988777317</v>
       </c>
       <c r="E49" s="14">
-        <f t="shared" si="19"/>
-        <v>1024671.8222832568</v>
+        <f t="shared" si="18"/>
+        <v>1025193.7961037843</v>
       </c>
       <c r="F49" s="14">
-        <f t="shared" si="19"/>
-        <v>42319.944359817498</v>
+        <f t="shared" si="18"/>
+        <v>42852.357656755412</v>
       </c>
       <c r="G49" s="14">
-        <f t="shared" si="19"/>
-        <v>49436.183654909226</v>
+        <f t="shared" si="18"/>
+        <v>49979.245217785909</v>
       </c>
       <c r="H49" s="14">
-        <f t="shared" si="19"/>
-        <v>52022.73571353282</v>
+        <f t="shared" si="18"/>
+        <v>52576.658507667031</v>
       </c>
       <c r="I49" s="14">
-        <f t="shared" si="19"/>
-        <v>54694.934415009506</v>
+        <f t="shared" si="18"/>
+        <v>55259.935665026416</v>
       </c>
       <c r="J49" s="14">
-        <f t="shared" si="19"/>
-        <v>62495.916771022574</v>
+        <f t="shared" si="18"/>
+        <v>63072.218046039809</v>
       </c>
       <c r="K49" s="14">
-        <f t="shared" si="19"/>
-        <v>65347.685092987667</v>
+        <f t="shared" si="18"/>
+        <v>65935.512393505254</v>
       </c>
       <c r="L49" s="14">
-        <f t="shared" si="19"/>
-        <v>1635072.2754627303</v>
+        <f t="shared" si="18"/>
+        <v>1645165.2702126172</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>98</v>
@@ -6724,7 +6721,7 @@
       </c>
       <c r="C51" s="15">
         <f>IRR(C49:L49)</f>
-        <v>0.14561359848520206</v>
+        <v>0.14653436417678911</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
@@ -6742,40 +6739,40 @@
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="11">
-        <f t="shared" ref="D52:L52" si="20">D30/$C$14</f>
-        <v>3.3738719964858339E-2</v>
+        <f t="shared" ref="D52:L52" si="19">D30/$C$14</f>
+        <v>3.4091643440536078E-2</v>
       </c>
       <c r="E52" s="11">
-        <f t="shared" si="20"/>
-        <v>8.3317011605534813E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.3676993550726123E-2</v>
       </c>
       <c r="F52" s="11">
-        <f t="shared" si="20"/>
-        <v>8.5033124941093788E-2</v>
+        <f t="shared" si="19"/>
+        <v>8.5400306525188902E-2</v>
       </c>
       <c r="G52" s="11">
-        <f t="shared" si="20"/>
-        <v>9.0052142370950147E-2</v>
+        <f t="shared" si="19"/>
+        <v>9.0426667586727183E-2</v>
       </c>
       <c r="H52" s="11">
-        <f t="shared" si="20"/>
-        <v>9.1883706213886418E-2</v>
+        <f t="shared" si="19"/>
+        <v>9.2265721933978972E-2</v>
       </c>
       <c r="I52" s="11">
-        <f t="shared" si="20"/>
-        <v>9.3775768752175859E-2</v>
+        <f t="shared" si="19"/>
+        <v>9.4165424786670282E-2</v>
       </c>
       <c r="J52" s="11">
-        <f t="shared" si="20"/>
-        <v>9.9277340155943888E-2</v>
+        <f t="shared" si="19"/>
+        <v>9.9674789311128192E-2</v>
       </c>
       <c r="K52" s="11">
-        <f t="shared" si="20"/>
-        <v>0.10129623807493135</v>
+        <f t="shared" si="19"/>
+        <v>0.10170163621321934</v>
       </c>
       <c r="L52" s="11">
-        <f t="shared" si="20"/>
-        <v>0.10338159452490778</v>
+        <f t="shared" si="19"/>
+        <v>0.10379510062596152</v>
       </c>
       <c r="N52" s="26" t="s">
         <v>36</v>
@@ -6793,40 +6790,40 @@
         <v>12</v>
       </c>
       <c r="D53" s="12">
-        <f t="shared" ref="D53:L53" si="21">IFERROR(D30/-SUM(D44:D45),0)</f>
+        <f t="shared" ref="D53:L53" si="20">IFERROR(D30/-SUM(D44:D45),0)</f>
         <v>0</v>
       </c>
       <c r="E53" s="12">
-        <f t="shared" si="21"/>
-        <v>1.7203741578612037</v>
+        <f t="shared" si="20"/>
+        <v>1.7278072573431658</v>
       </c>
       <c r="F53" s="12">
-        <f t="shared" si="21"/>
-        <v>1.7558093826438039</v>
+        <f t="shared" si="20"/>
+        <v>1.7633911441154049</v>
       </c>
       <c r="G53" s="12">
-        <f t="shared" si="21"/>
-        <v>1.8594447353501684</v>
+        <f t="shared" si="20"/>
+        <v>1.8671781320512015</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="21"/>
-        <v>1.8972638438748335</v>
+        <f t="shared" si="20"/>
+        <v>1.9051519085098871</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="21"/>
-        <v>1.9363321617754028</v>
+        <f t="shared" si="20"/>
+        <v>1.944377987703158</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="21"/>
-        <v>2.0499315466823131</v>
+        <f t="shared" si="20"/>
+        <v>2.0581382891286233</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="21"/>
-        <v>2.0916188292702915</v>
+        <f t="shared" si="20"/>
+        <v>2.0999897065655277</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="21"/>
-        <v>2.1346783831037168</v>
+        <f t="shared" si="20"/>
+        <v>2.1432166779448578</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>37</v>
@@ -6866,35 +6863,35 @@
         <v>1450000</v>
       </c>
       <c r="E55" s="10">
-        <f t="shared" ref="E55:L55" si="22">D55-(E41+E42)</f>
+        <f t="shared" ref="E55:L55" si="21">D55-(E41+E42)</f>
         <v>465225.00000000012</v>
       </c>
       <c r="F55" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>465225.00000000012</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>465225.00000000012</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>465225.00000000012</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>465225.00000000012</v>
       </c>
       <c r="J55" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>465225.00000000012</v>
       </c>
       <c r="K55" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>465225.00000000012</v>
       </c>
       <c r="L55" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>465225.00000000012</v>
       </c>
       <c r="N55" s="1" t="s">
@@ -6909,40 +6906,40 @@
         <v>10</v>
       </c>
       <c r="D56" s="11">
-        <f t="shared" ref="D56:L56" si="23">D49/D55</f>
-        <v>2.7368375137272132E-2</v>
+        <f t="shared" ref="D56:L56" si="22">D49/D55</f>
+        <v>2.7721298612949873E-2</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" si="23"/>
-        <v>2.2025295766204667</v>
+        <f t="shared" si="22"/>
+        <v>2.2036515580714364</v>
       </c>
       <c r="F56" s="11">
-        <f t="shared" si="23"/>
-        <v>9.0966616926900931E-2</v>
+        <f t="shared" si="22"/>
+        <v>9.2111038006890009E-2</v>
       </c>
       <c r="G56" s="11">
-        <f t="shared" si="23"/>
-        <v>0.10626295589211503</v>
+        <f t="shared" si="22"/>
+        <v>0.1074302653937039</v>
       </c>
       <c r="H56" s="11">
-        <f t="shared" si="23"/>
-        <v>0.11182274321786836</v>
+        <f t="shared" si="22"/>
+        <v>0.113013398909489</v>
       </c>
       <c r="I56" s="11">
-        <f t="shared" si="23"/>
-        <v>0.11756662779302379</v>
+        <f t="shared" si="22"/>
+        <v>0.11878109659847687</v>
       </c>
       <c r="J56" s="11">
-        <f t="shared" si="23"/>
-        <v>0.13433482029345489</v>
+        <f t="shared" si="22"/>
+        <v>0.13557357847501703</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="23"/>
-        <v>0.14046468932879286</v>
+        <f t="shared" si="22"/>
+        <v>0.14172822267398621</v>
       </c>
       <c r="L56" s="11">
-        <f t="shared" si="23"/>
-        <v>3.5145838582679994</v>
+        <f t="shared" si="22"/>
+        <v>3.5362787258049693</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>2</v>
@@ -6956,40 +6953,40 @@
         <v>11</v>
       </c>
       <c r="D57" s="11">
-        <f t="shared" ref="D57:L57" si="24">(D49-D45)/D55</f>
-        <v>2.7368375137272132E-2</v>
+        <f t="shared" ref="D57:L57" si="23">(D49-D45)/D55</f>
+        <v>2.7721298612949873E-2</v>
       </c>
       <c r="E57" s="11">
-        <f t="shared" si="24"/>
-        <v>2.2498408830738352</v>
+        <f t="shared" si="23"/>
+        <v>2.2509628645248054</v>
       </c>
       <c r="F57" s="11">
-        <f t="shared" si="24"/>
-        <v>0.14052521043680474</v>
+        <f t="shared" si="23"/>
+        <v>0.14166963151679382</v>
       </c>
       <c r="G57" s="11">
-        <f t="shared" si="24"/>
-        <v>0.15817558259373926</v>
+        <f t="shared" si="23"/>
+        <v>0.15934289209532812</v>
       </c>
       <c r="H57" s="11">
-        <f t="shared" si="24"/>
-        <v>0.16620121968781973</v>
+        <f t="shared" si="23"/>
+        <v>0.16739187537944036</v>
       </c>
       <c r="I57" s="11">
-        <f t="shared" si="24"/>
-        <v>0.17452808189529787</v>
+        <f t="shared" si="23"/>
+        <v>0.17574255070075095</v>
       </c>
       <c r="J57" s="11">
-        <f t="shared" si="24"/>
-        <v>0.194001943465587</v>
+        <f t="shared" si="23"/>
+        <v>0.19524070164714913</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="24"/>
-        <v>0.20296600085160121</v>
+        <f t="shared" si="23"/>
+        <v>0.2042295341967946</v>
       </c>
       <c r="L57" s="11">
-        <f t="shared" si="24"/>
-        <v>3.580053982088141</v>
+        <f t="shared" si="23"/>
+        <v>3.6017488496251113</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>38</v>
@@ -7026,40 +7023,40 @@
         <v>-1450000</v>
       </c>
       <c r="D63" s="32">
-        <f t="shared" ref="D63:K63" si="25">(D41+D42)+(D39+D44+D45)*$O$72</f>
-        <v>27778.900764331214</v>
+        <f t="shared" ref="D63:K63" si="24">(D41+D42)+(D39+D44+D45)*$O$72</f>
+        <v>28137.118092144119</v>
       </c>
       <c r="E63" s="32">
-        <f t="shared" si="25"/>
-        <v>1012702.7755982798</v>
+        <f t="shared" si="24"/>
+        <v>1013068.157272649</v>
       </c>
       <c r="F63" s="32">
-        <f t="shared" si="25"/>
-        <v>29623.961051872247</v>
+        <f t="shared" si="24"/>
+        <v>29996.650359728785</v>
       </c>
       <c r="G63" s="32">
-        <f t="shared" si="25"/>
-        <v>34605.328558436457</v>
+        <f t="shared" si="24"/>
+        <v>34985.471652450135</v>
       </c>
       <c r="H63" s="32">
-        <f t="shared" si="25"/>
-        <v>36415.914999472974</v>
+        <f t="shared" si="24"/>
+        <v>36803.660955366919</v>
       </c>
       <c r="I63" s="32">
-        <f t="shared" si="25"/>
-        <v>38286.454090506653</v>
+        <f t="shared" si="24"/>
+        <v>38681.954965518489</v>
       </c>
       <c r="J63" s="32">
-        <f t="shared" si="25"/>
-        <v>43747.1417397158</v>
+        <f t="shared" si="24"/>
+        <v>44150.55263222786</v>
       </c>
       <c r="K63" s="32">
-        <f t="shared" si="25"/>
-        <v>45743.379565091367</v>
+        <f t="shared" si="24"/>
+        <v>46154.858675453674</v>
       </c>
       <c r="L63" s="20">
         <f>L55+(L49-L55)*O72</f>
-        <v>1284118.0928239115</v>
+        <v>1291183.1891488321</v>
       </c>
       <c r="N63" s="26" t="s">
         <v>33</v>
@@ -7080,40 +7077,40 @@
         <v>0</v>
       </c>
       <c r="D64" s="18">
-        <f t="shared" ref="D64:K64" si="26">(D39+D44+D45)*(1-$O$72)</f>
-        <v>11905.243184713379</v>
+        <f t="shared" ref="D64:K64" si="25">(D39+D44+D45)*(1-$O$72)</f>
+        <v>12058.764896633196</v>
       </c>
       <c r="E64" s="18">
-        <f t="shared" si="26"/>
-        <v>11969.046684977098</v>
+        <f t="shared" si="25"/>
+        <v>12125.638831135315</v>
       </c>
       <c r="F64" s="18">
-        <f t="shared" si="26"/>
-        <v>12695.983307945251</v>
+        <f t="shared" si="25"/>
+        <v>12855.707297026625</v>
       </c>
       <c r="G64" s="18">
-        <f t="shared" si="26"/>
-        <v>14830.855096472769</v>
+        <f t="shared" si="25"/>
+        <v>14993.773565335774</v>
       </c>
       <c r="H64" s="18">
-        <f t="shared" si="26"/>
-        <v>15606.820714059848</v>
+        <f t="shared" si="25"/>
+        <v>15772.997552300112</v>
       </c>
       <c r="I64" s="18">
-        <f t="shared" si="26"/>
-        <v>16408.480324502852</v>
+        <f t="shared" si="25"/>
+        <v>16577.980699507927</v>
       </c>
       <c r="J64" s="18">
-        <f t="shared" si="26"/>
-        <v>18748.775031306774</v>
+        <f t="shared" si="25"/>
+        <v>18921.665413811945</v>
       </c>
       <c r="K64" s="18">
-        <f t="shared" si="26"/>
-        <v>19604.305527896304</v>
+        <f t="shared" si="25"/>
+        <v>19780.653718051581</v>
       </c>
       <c r="L64" s="20">
         <f>(L49-L55)*(1-$O$72)</f>
-        <v>350954.18263881915</v>
+        <v>353982.08106378524</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>34</v>
@@ -7128,39 +7125,39 @@
         <v>1</v>
       </c>
       <c r="D65" s="1" t="b">
-        <f t="shared" ref="D65:L65" si="27">SUM(D63:D64)=D49</f>
+        <f t="shared" ref="D65:L65" si="26">SUM(D63:D64)=D49</f>
         <v>1</v>
       </c>
       <c r="E65" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="F65" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="G65" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="H65" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I65" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="J65" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K65" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="L65" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="N65" s="1" t="s">
@@ -7168,7 +7165,7 @@
       </c>
       <c r="O65" s="32">
         <f>L30/O64</f>
-        <v>2498388.5343519379</v>
+        <v>2508381.5984607372</v>
       </c>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.15">
@@ -7177,7 +7174,7 @@
       </c>
       <c r="O66" s="32">
         <f>O65/O3</f>
-        <v>469.62190495337177</v>
+        <v>471.5003004625446</v>
       </c>
     </row>
     <row r="67" spans="2:21" x14ac:dyDescent="0.15">
@@ -7186,7 +7183,7 @@
       </c>
       <c r="C67" s="15">
         <f>IRR(C63:L63,1)</f>
-        <v>0.1143272450075874</v>
+        <v>0.11509005047284537</v>
       </c>
       <c r="L67" s="18"/>
     </row>
@@ -7410,39 +7407,39 @@
       </c>
       <c r="D8" s="10">
         <f>(SUM('Cash Flow'!D30:D34)+'Cash Flow'!D44+'Cash Flow'!D45)*'Cash Flow'!$O$72*(1/14.5)</f>
-        <v>1915.7862596090492</v>
+        <v>1940.4909029064909</v>
       </c>
       <c r="E8" s="10">
         <f>(SUM('Cash Flow'!E30:E34)+'Cash Flow'!E44+'Cash Flow'!E45)*'Cash Flow'!$O$72*(1/14.5)</f>
-        <v>1926.0534895365442</v>
+        <v>1951.2522256999353</v>
       </c>
       <c r="F8" s="10">
         <f>(SUM('Cash Flow'!F30:F34)+'Cash Flow'!F44+'Cash Flow'!F45)*'Cash Flow'!$O$72*(1/14.5)</f>
-        <v>2043.0317966808445</v>
+        <v>2068.7345075675025</v>
       </c>
       <c r="G8" s="10">
         <f>(SUM('Cash Flow'!G30:G34)+'Cash Flow'!G44+'Cash Flow'!G45)*'Cash Flow'!$O$72*(1/14.5)</f>
-        <v>2386.5743833404454</v>
+        <v>2412.7911484448368</v>
       </c>
       <c r="H8" s="10">
         <f>(SUM('Cash Flow'!H30:H34)+'Cash Flow'!H44+'Cash Flow'!H45)*'Cash Flow'!$O$72*(1/14.5)</f>
-        <v>2511.4424137567567</v>
+        <v>2538.1835141632359</v>
       </c>
       <c r="I8" s="10">
         <f>(SUM('Cash Flow'!I30:I34)+'Cash Flow'!I44+'Cash Flow'!I45)*'Cash Flow'!$O$72*(1/14.5)</f>
-        <v>2640.4451096901139</v>
+        <v>2667.7210321047232</v>
       </c>
       <c r="J8" s="10">
         <f>(SUM('Cash Flow'!J30:J34)+'Cash Flow'!J44+'Cash Flow'!J45)*'Cash Flow'!$O$72*(1/14.5)</f>
-        <v>3017.0442579114347</v>
+        <v>3044.8656987743352</v>
       </c>
       <c r="K8" s="10">
         <f>(SUM('Cash Flow'!K30:K34)+'Cash Flow'!K44+'Cash Flow'!K45)*'Cash Flow'!$O$72*(1/14.5)</f>
-        <v>3154.7158320752665</v>
+        <v>3183.0937017554256</v>
       </c>
       <c r="L8" s="10">
         <f>(SUM('Cash Flow'!L30:L34)+'Cash Flow'!L44+'Cash Flow'!L45)*'Cash Flow'!$O$72*(1/14.5)</f>
-        <v>3296.9299650033668</v>
+        <v>3325.8753920771292</v>
       </c>
       <c r="N8" s="18"/>
     </row>
@@ -7528,7 +7525,7 @@
       </c>
       <c r="L10" s="10">
         <f>L7+('Cash Flow'!L36+'Cash Flow'!L37+'Cash Flow'!L47-'Cash Flow'!L55)*'Cash Flow'!$O$72*(1/14.5)</f>
-        <v>85262.938505611193</v>
+        <v>85721.241100945772</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
@@ -7589,39 +7586,39 @@
       </c>
       <c r="D13" s="18">
         <f>SUM(D8:D10)</f>
-        <v>1915.7862596090492</v>
+        <v>1940.4909029064909</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ref="E13:L13" si="2">SUM(E8:E10)</f>
-        <v>69841.570730915846</v>
+        <v>69866.769467079241</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" si="2"/>
-        <v>2043.0317966808445</v>
+        <v>2068.7345075675025</v>
       </c>
       <c r="G13" s="18">
         <f t="shared" si="2"/>
-        <v>2386.5743833404454</v>
+        <v>2412.7911484448368</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" si="2"/>
-        <v>2511.4424137567567</v>
+        <v>2538.1835141632359</v>
       </c>
       <c r="I13" s="18">
         <f t="shared" si="2"/>
-        <v>2640.4451096901139</v>
+        <v>2667.7210321047232</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" si="2"/>
-        <v>3017.0442579114347</v>
+        <v>3044.8656987743352</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" si="2"/>
-        <v>3154.7158320752665</v>
+        <v>3183.0937017554256</v>
       </c>
       <c r="L13" s="18">
         <f t="shared" si="2"/>
-        <v>88559.868470614558</v>
+        <v>89047.116493022899</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
@@ -7630,39 +7627,39 @@
       </c>
       <c r="D14" s="11">
         <f>D8/D7</f>
-        <v>1.9157862596090491E-2</v>
+        <v>1.9404909029064908E-2</v>
       </c>
       <c r="E14" s="11">
-        <f>E8/E11</f>
-        <v>6.0030685363598013E-2</v>
+        <f t="shared" ref="E14:K14" si="3">E8/E11</f>
+        <v>6.0816072379276817E-2</v>
       </c>
       <c r="F14" s="11">
-        <f>F8/F11</f>
-        <v>6.3676631848830656E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.4477726604822996E-2</v>
       </c>
       <c r="G14" s="11">
-        <f>G8/G11</f>
-        <v>7.438406912448052E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.5201185775592733E-2</v>
       </c>
       <c r="H14" s="11">
-        <f>H8/H11</f>
-        <v>7.8275920252507847E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.9109379236642297E-2</v>
       </c>
       <c r="I14" s="11">
-        <f>I8/I11</f>
-        <v>8.2296639455116657E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3146767618933803E-2</v>
       </c>
       <c r="J14" s="11">
-        <f>J8/J11</f>
-        <v>9.4034374205418436E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.4901504932511913E-2</v>
       </c>
       <c r="K14" s="11">
-        <f>K8/K11</f>
-        <v>9.8325282530154989E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.9209755871790345E-2</v>
       </c>
       <c r="L14" s="11">
         <f>L8/L7</f>
-        <v>0.10275777202976798</v>
+        <v>0.10365993483823605</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
@@ -7671,7 +7668,7 @@
       </c>
       <c r="C15" s="15">
         <f>IRR(C13:L13,1)</f>
-        <v>0.11432724500750835</v>
+        <v>0.1150900504727963</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
@@ -7680,7 +7677,7 @@
       </c>
       <c r="C16" s="12">
         <f>SUM(D13:L13)/-C13</f>
-        <v>1.7607047925459431</v>
+        <v>1.7676976646581868</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -7788,39 +7785,39 @@
         <v>1450000</v>
       </c>
       <c r="D28" s="52">
-        <f t="shared" ref="D28:L28" si="3">D7*14.5</f>
+        <f t="shared" ref="D28:L28" si="4">D7*14.5</f>
         <v>1450000</v>
       </c>
       <c r="E28" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1450000</v>
       </c>
       <c r="F28" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>465225.00000000012</v>
       </c>
       <c r="G28" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>465225.00000000012</v>
       </c>
       <c r="H28" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>465225.00000000012</v>
       </c>
       <c r="I28" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>465225.00000000012</v>
       </c>
       <c r="J28" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>465225.00000000012</v>
       </c>
       <c r="K28" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>465225.00000000012</v>
       </c>
       <c r="L28" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>465225.00000000012</v>
       </c>
     </row>
@@ -7833,40 +7830,40 @@
         <v>0</v>
       </c>
       <c r="D29" s="10">
-        <f t="shared" ref="D29:L29" si="4">D8*14.5</f>
-        <v>27778.900764331214</v>
+        <f t="shared" ref="D29:L29" si="5">D8*14.5</f>
+        <v>28137.118092144119</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" si="4"/>
-        <v>27927.775598279892</v>
+        <f t="shared" si="5"/>
+        <v>28293.157272649059</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="4"/>
-        <v>29623.961051872247</v>
+        <f t="shared" si="5"/>
+        <v>29996.650359728788</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" si="4"/>
-        <v>34605.328558436457</v>
+        <f t="shared" si="5"/>
+        <v>34985.471652450135</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="4"/>
-        <v>36415.914999472974</v>
+        <f t="shared" si="5"/>
+        <v>36803.660955366919</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="4"/>
-        <v>38286.454090506653</v>
+        <f t="shared" si="5"/>
+        <v>38681.954965518489</v>
       </c>
       <c r="J29" s="10">
-        <f t="shared" si="4"/>
-        <v>43747.1417397158</v>
+        <f t="shared" si="5"/>
+        <v>44150.55263222786</v>
       </c>
       <c r="K29" s="10">
-        <f t="shared" si="4"/>
-        <v>45743.379565091367</v>
+        <f t="shared" si="5"/>
+        <v>46154.858675453674</v>
       </c>
       <c r="L29" s="10">
-        <f t="shared" si="4"/>
-        <v>47805.484492548821</v>
+        <f t="shared" si="5"/>
+        <v>48225.193185118376</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
@@ -7874,43 +7871,43 @@
         <v>107</v>
       </c>
       <c r="C30" s="10">
-        <f t="shared" ref="C30:L31" si="5">C9*14.5</f>
+        <f t="shared" ref="C30:L31" si="6">C9*14.5</f>
         <v>0</v>
       </c>
       <c r="D30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>984774.99999999988</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L30" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7919,44 +7916,44 @@
         <v>108</v>
       </c>
       <c r="C31" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D31" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E31" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J31" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K31" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L31" s="10">
-        <f t="shared" si="5"/>
-        <v>1236312.6083313623</v>
+        <f t="shared" si="6"/>
+        <v>1242957.9959637136</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
@@ -7968,39 +7965,39 @@
         <v>1450000</v>
       </c>
       <c r="D32" s="52">
-        <f t="shared" ref="D32" si="6">MAX(D28-D30-D31,0)</f>
+        <f t="shared" ref="D32" si="7">MAX(D28-D30-D31,0)</f>
         <v>1450000</v>
       </c>
       <c r="E32" s="52">
-        <f t="shared" ref="E32" si="7">MAX(E28-E30-E31,0)</f>
+        <f t="shared" ref="E32" si="8">MAX(E28-E30-E31,0)</f>
         <v>465225.00000000012</v>
       </c>
       <c r="F32" s="52">
-        <f t="shared" ref="F32" si="8">MAX(F28-F30-F31,0)</f>
+        <f t="shared" ref="F32" si="9">MAX(F28-F30-F31,0)</f>
         <v>465225.00000000012</v>
       </c>
       <c r="G32" s="52">
-        <f t="shared" ref="G32" si="9">MAX(G28-G30-G31,0)</f>
+        <f t="shared" ref="G32" si="10">MAX(G28-G30-G31,0)</f>
         <v>465225.00000000012</v>
       </c>
       <c r="H32" s="52">
-        <f t="shared" ref="H32" si="10">MAX(H28-H30-H31,0)</f>
+        <f t="shared" ref="H32" si="11">MAX(H28-H30-H31,0)</f>
         <v>465225.00000000012</v>
       </c>
       <c r="I32" s="52">
-        <f t="shared" ref="I32" si="11">MAX(I28-I30-I31,0)</f>
+        <f t="shared" ref="I32" si="12">MAX(I28-I30-I31,0)</f>
         <v>465225.00000000012</v>
       </c>
       <c r="J32" s="52">
-        <f t="shared" ref="J32" si="12">MAX(J28-J30-J31,0)</f>
+        <f t="shared" ref="J32" si="13">MAX(J28-J30-J31,0)</f>
         <v>465225.00000000012</v>
       </c>
       <c r="K32" s="52">
-        <f t="shared" ref="K32" si="13">MAX(K28-K30-K31,0)</f>
+        <f t="shared" ref="K32" si="14">MAX(K28-K30-K31,0)</f>
         <v>465225.00000000012</v>
       </c>
       <c r="L32" s="52">
-        <f t="shared" ref="L32" si="14">MAX(L28-L30-L31,0)</f>
+        <f t="shared" ref="L32" si="15">MAX(L28-L30-L31,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8017,39 +8014,39 @@
       </c>
       <c r="D34" s="18">
         <f>SUM(D29:D31)</f>
-        <v>27778.900764331214</v>
+        <v>28137.118092144119</v>
       </c>
       <c r="E34" s="18">
-        <f t="shared" ref="E34:L34" si="15">SUM(E29:E31)</f>
-        <v>1012702.7755982798</v>
+        <f t="shared" ref="E34:L34" si="16">SUM(E29:E31)</f>
+        <v>1013068.157272649</v>
       </c>
       <c r="F34" s="18">
-        <f t="shared" si="15"/>
-        <v>29623.961051872247</v>
+        <f t="shared" si="16"/>
+        <v>29996.650359728788</v>
       </c>
       <c r="G34" s="18">
-        <f t="shared" si="15"/>
-        <v>34605.328558436457</v>
+        <f t="shared" si="16"/>
+        <v>34985.471652450135</v>
       </c>
       <c r="H34" s="18">
-        <f t="shared" si="15"/>
-        <v>36415.914999472974</v>
+        <f t="shared" si="16"/>
+        <v>36803.660955366919</v>
       </c>
       <c r="I34" s="18">
-        <f t="shared" si="15"/>
-        <v>38286.454090506653</v>
+        <f t="shared" si="16"/>
+        <v>38681.954965518489</v>
       </c>
       <c r="J34" s="18">
-        <f t="shared" si="15"/>
-        <v>43747.1417397158</v>
+        <f t="shared" si="16"/>
+        <v>44150.55263222786</v>
       </c>
       <c r="K34" s="18">
-        <f t="shared" si="15"/>
-        <v>45743.379565091367</v>
+        <f t="shared" si="16"/>
+        <v>46154.858675453674</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" si="15"/>
-        <v>1284118.092823911</v>
+        <f t="shared" si="16"/>
+        <v>1291183.1891488321</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.15">
@@ -8058,39 +8055,39 @@
       </c>
       <c r="D35" s="11">
         <f>D29/D28</f>
-        <v>1.9157862596090494E-2</v>
+        <v>1.9404909029064908E-2</v>
       </c>
       <c r="E35" s="11">
-        <f>E29/E32</f>
-        <v>6.0030685363598013E-2</v>
+        <f t="shared" ref="E35:K35" si="17">E29/E32</f>
+        <v>6.0816072379276803E-2</v>
       </c>
       <c r="F35" s="11">
-        <f>F29/F32</f>
-        <v>6.3676631848830656E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.4477726604822996E-2</v>
       </c>
       <c r="G35" s="11">
-        <f>G29/G32</f>
-        <v>7.438406912448052E-2</v>
+        <f t="shared" si="17"/>
+        <v>7.5201185775592719E-2</v>
       </c>
       <c r="H35" s="11">
-        <f>H29/H32</f>
-        <v>7.8275920252507847E-2</v>
+        <f t="shared" si="17"/>
+        <v>7.9109379236642297E-2</v>
       </c>
       <c r="I35" s="11">
-        <f>I29/I32</f>
-        <v>8.2296639455116644E-2</v>
+        <f t="shared" si="17"/>
+        <v>8.3146767618933803E-2</v>
       </c>
       <c r="J35" s="11">
-        <f>J29/J32</f>
-        <v>9.4034374205418436E-2</v>
+        <f t="shared" si="17"/>
+        <v>9.4901504932511899E-2</v>
       </c>
       <c r="K35" s="11">
-        <f>K29/K32</f>
-        <v>9.8325282530154989E-2</v>
+        <f t="shared" si="17"/>
+        <v>9.9209755871790345E-2</v>
       </c>
       <c r="L35" s="11">
         <f>L29/L28</f>
-        <v>0.10275777202976798</v>
+        <v>0.10365993483823605</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.15">
@@ -8099,7 +8096,7 @@
       </c>
       <c r="C36" s="15">
         <f>IRR(C34:L34,1)</f>
-        <v>0.1143272450075874</v>
+        <v>0.11509005047284537</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.15">
@@ -8108,7 +8105,7 @@
       </c>
       <c r="C37" s="12">
         <f>SUM(D34:L34)/-C34</f>
-        <v>1.7607047925459429</v>
+        <v>1.767697664658187</v>
       </c>
     </row>
   </sheetData>
